--- a/biology/Zoologie/Cochenille-tortue_du_pin/Cochenille-tortue_du_pin.xlsx
+++ b/biology/Zoologie/Cochenille-tortue_du_pin/Cochenille-tortue_du_pin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toumeyella parvicornis
-La cochenille-tortue du pin (Toumeyella parvicornis) est une espèce d'insectes hémiptères de la famille des Coccidae[1].
+La cochenille-tortue du pin (Toumeyella parvicornis) est une espèce d'insectes hémiptères de la famille des Coccidae.
 Cette cochenille est un parasite des pins originaire d'Amérique.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Toumeyella parvicornis comprend le Canada, le Mexique et les États-Unis où elle s'attaque principalement au Pin gris[2]. Mais l'espèce a été introduite en Europe et menace notamment les pins parasols de Rome[3],[4]. Elle a également été signalée en France dans le département du Var en 2022[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Toumeyella parvicornis comprend le Canada, le Mexique et les États-Unis où elle s'attaque principalement au Pin gris. Mais l'espèce a été introduite en Europe et menace notamment les pins parasols de Rome,. Elle a également été signalée en France dans le département du Var en 2022.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après hibernation, les femelles fécondées l'année précédente achèvent leur croissance avec la reprise de la végétation et pondent leur œufs, lesquels donnent vie à de petites cochenilles de couleur orange. Dotées de pattes, elles se déplacent à la recherche d'un site approprié où les femelles pourront rester fixées sur l'hôte jusqu'à l'été de l'année suivante. Les mâles ont une vie nettement plus courte ; ils s'enveloppent d'un bouclier d'où émergera 6 semaines plus tard un insecte ailé qui fécondera les femelles et mourra en deux jours[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après hibernation, les femelles fécondées l'année précédente achèvent leur croissance avec la reprise de la végétation et pondent leur œufs, lesquels donnent vie à de petites cochenilles de couleur orange. Dotées de pattes, elles se déplacent à la recherche d'un site approprié où les femelles pourront rester fixées sur l'hôte jusqu'à l'été de l'année suivante. Les mâles ont une vie nettement plus courte ; ils s'enveloppent d'un bouclier d'où émergera 6 semaines plus tard un insecte ailé qui fécondera les femelles et mourra en deux jours.
 </t>
         </is>
       </c>
